--- a/mtuts courses.xlsx
+++ b/mtuts courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\CODING-LESSONS\01-resume-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D2165A-DEBF-4F61-9A9A-2B0BD9A3BE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446153A4-4696-4B35-9CD9-9ACA3E639257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="1830" windowWidth="7500" windowHeight="7065" xr2:uid="{02F22F35-F606-4DD0-BF9F-B9C3711E087A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02F22F35-F606-4DD0-BF9F-B9C3711E087A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9D3707-C385-4684-9DC1-84EEA914F1CA}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1.6087962962962963E-3</v>
       </c>
@@ -414,8 +414,11 @@
       <c r="D1" s="1">
         <v>2.4189814814814816E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1">
+        <v>0.84027777777777779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>6.0648148148148145E-3</v>
       </c>
@@ -428,8 +431,11 @@
       <c r="D2" s="1">
         <v>3.1018518518518522E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>0.6645833333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7.6388888888888886E-3</v>
       </c>
@@ -442,8 +448,11 @@
       <c r="D3" s="1">
         <v>4.409722222222222E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>0.2076388888888889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.9236111111111112E-3</v>
       </c>
@@ -456,8 +465,11 @@
       <c r="D4" s="1">
         <v>5.7870370370370376E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>0.38125000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -470,8 +482,11 @@
       <c r="D5" s="1">
         <v>4.4212962962962956E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.9074074074074072E-3</v>
       </c>
@@ -484,8 +499,11 @@
       <c r="D6" s="1">
         <v>3.9236111111111112E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>0.96388888888888891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.2534722222222223E-2</v>
       </c>
@@ -498,8 +516,11 @@
       <c r="D7" s="1">
         <v>6.2268518518518515E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>0.24652777777777779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.7245370370370372E-3</v>
       </c>
@@ -512,8 +533,11 @@
       <c r="D8" s="1">
         <v>1.0185185185185184E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>0.77986111111111101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6.3541666666666668E-3</v>
       </c>
@@ -526,8 +550,11 @@
       <c r="D9" s="1">
         <v>3.3449074074074071E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>0.70208333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1.1122685185185185E-2</v>
       </c>
@@ -540,8 +567,11 @@
       <c r="D10" s="1">
         <v>3.2870370370370367E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>0.16388888888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6.5972222222222222E-3</v>
       </c>
@@ -555,7 +585,7 @@
         <v>8.9120370370370378E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3.5763888888888894E-3</v>
       </c>
@@ -568,8 +598,12 @@
       <c r="D12" s="1">
         <v>4.1319444444444442E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <f>SUM(F1:F10)</f>
+        <v>7.8249999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6.4120370370370364E-3</v>
       </c>
@@ -583,7 +617,7 @@
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.0763888888888891E-2</v>
       </c>
@@ -597,7 +631,7 @@
         <v>1.005787037037037E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5.7638888888888887E-3</v>
       </c>
@@ -611,7 +645,7 @@
         <v>1.3368055555555557E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>8.726851851851852E-3</v>
       </c>
